--- a/biology/Botanique/Amomum_tsao-ko/Amomum_tsao-ko.xlsx
+++ b/biology/Botanique/Amomum_tsao-ko/Amomum_tsao-ko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amomum tsao-ko, ou Amomum tsaoko, ou la cardamome tsao-ko, est une espèce de plantes de la famille des Zingibéracées. Elle a été décrite scientifiquement par Crevost et Lemarié en 1917[3]. Son nom vient du chinois cao guo.
-Cette plante pousse en altitude à quatre endroits sur une superficie estimée à 7,989 km2 dans le sud de la Chine (Yunnan), des provinces du nord du Laos et du nord du Vietnam[4].
-Amomum tsao-ko est classée dans la catégorie « quasi menacée » par l'Union internationale pour la conservation de la nature, car ses fruits comestibles ont fait l’objet d’une cueillette excessive pour le commerce[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amomum tsao-ko, ou Amomum tsaoko, ou la cardamome tsao-ko, est une espèce de plantes de la famille des Zingibéracées. Elle a été décrite scientifiquement par Crevost et Lemarié en 1917. Son nom vient du chinois cao guo.
+Cette plante pousse en altitude à quatre endroits sur une superficie estimée à 7,989 km2 dans le sud de la Chine (Yunnan), des provinces du nord du Laos et du nord du Vietnam.
+Amomum tsao-ko est classée dans la catégorie « quasi menacée » par l'Union internationale pour la conservation de la nature, car ses fruits comestibles ont fait l’objet d’une cueillette excessive pour le commerce.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amomum tsao-ko, dans ses versions sauvages et cultivées, est utilisée dans la pharmacopée traditionnelle chinoise ainsi que dans les cuisines chinoise et vietnamienne. Ses fruits murs sont consommés au Laos[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amomum tsao-ko, dans ses versions sauvages et cultivées, est utilisée dans la pharmacopée traditionnelle chinoise ainsi que dans les cuisines chinoise et vietnamienne. Ses fruits murs sont consommés au Laos.
 </t>
         </is>
       </c>
